--- a/income.xlsx
+++ b/income.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\GE DS\datascience-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Desktop\GE DS\t\datascience-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA371F-3D09-4C76-BC43-130B6BE89A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37F216D-8B9F-4C75-BECD-BED6B2AF9DB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1874,14 +1874,14 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -1959,7 +1959,72 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Monthly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> employment earnings of employed persons by educational attainment</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-HK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2012,6 +2077,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-HK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>income!$D$4</c:f>
@@ -2104,6 +2227,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-HK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>income!$E$4</c:f>
@@ -2160,100 +2341,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>income!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>專上教育
-Post-secondary</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>income!$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>income!$F$7:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_ </c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9342-4176-AE6F-D43760D4521E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>income!$G$5</c:f>
@@ -2289,6 +2378,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-HK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>income!$G$4</c:f>
@@ -2296,7 +2443,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,7 +2493,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>income!$H$5</c:f>
@@ -2382,6 +2529,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-HK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>income!$H$4</c:f>
@@ -2389,7 +2594,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2644,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>income!$I$5</c:f>
@@ -2475,6 +2680,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-HK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>income!$I$4</c:f>
@@ -2482,7 +2745,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,7 +2795,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>income!$C$5</c:f>
@@ -2571,6 +2834,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-HK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>income!$C$4</c:f>
@@ -2627,8 +2948,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3417,13 +3739,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>977104</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>201084</xdr:rowOff>
+      <xdr:rowOff>201083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3775,8 +4097,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:FT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4335,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>6</v>
-      </c>
-      <c r="I4" s="1">
-        <v>7</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -4512,17 +4834,17 @@
       <c r="FT4" s="1"/>
     </row>
     <row r="5" spans="1:176" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -10218,10 +10540,10 @@
       <c r="FT4" s="1"/>
     </row>
     <row r="5" spans="1:176" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
